--- a/Issue.xlsx
+++ b/Issue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -41,13 +41,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hel</t>
+    <t>Emmanuel Antony</t>
+  </si>
+  <si>
+    <t>CS1B</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>T112</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +468,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>43410</v>
@@ -480,85 +483,7 @@
         <v>43423</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
         <v>43410</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43423</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>43410</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>43423</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>43410</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>43423</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>43423</v>
       </c>
     </row>
   </sheetData>
